--- a/Base_de_dados/Produtos.xlsx
+++ b/Base_de_dados/Produtos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme Rodrigues\Documents\DEV\Navio\Base_de_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B99B25-218C-4927-871A-7DB26C7D725B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C285D10-8461-4E3A-9662-60869562698E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29655" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new sheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="591">
   <si>
     <t>ID_TABELA</t>
   </si>
@@ -1806,13 +1806,16 @@
   </si>
   <si>
     <t>CAMARAO20</t>
+  </si>
+  <si>
+    <t>VOLUME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1837,6 +1840,13 @@
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1867,7 +1877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1876,6 +1886,7 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2210,10 +2221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K405"/>
+  <dimension ref="A1:L405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="D61" workbookViewId="0">
+      <selection activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2232,7 +2243,7 @@
     <col min="12" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2266,8 +2277,11 @@
       <c r="K1" s="5" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>10</v>
       </c>
@@ -2301,8 +2315,11 @@
       <c r="K2" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>10</v>
       </c>
@@ -2328,10 +2345,13 @@
         <v>16.7</v>
       </c>
       <c r="I3" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>10</v>
       </c>
@@ -2357,7 +2377,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>10</v>
       </c>
@@ -2383,7 +2403,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>10</v>
       </c>
@@ -2409,7 +2429,7 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>10</v>
       </c>
@@ -2435,7 +2455,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>10</v>
       </c>
@@ -2461,7 +2481,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>10</v>
       </c>
@@ -2487,7 +2507,7 @@
         <v>14.05</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -2513,7 +2533,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2539,7 +2559,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2565,7 +2585,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2591,7 +2611,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -2617,7 +2637,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -2643,7 +2663,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>10</v>
       </c>
@@ -3917,7 +3937,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>8</v>
       </c>
@@ -3943,7 +3963,7 @@
         <v>20.149999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>8</v>
       </c>
@@ -3969,7 +3989,7 @@
         <v>70.7</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>8</v>
       </c>
@@ -3995,7 +4015,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>8</v>
       </c>
@@ -4021,7 +4041,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>8</v>
       </c>
@@ -4047,7 +4067,7 @@
         <v>115.6</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>8</v>
       </c>
@@ -4073,7 +4093,7 @@
         <v>43.12</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>8</v>
       </c>
@@ -4099,7 +4119,7 @@
         <v>74.3</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>8</v>
       </c>
@@ -4125,7 +4145,7 @@
         <v>60.4</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>8</v>
       </c>
@@ -4151,7 +4171,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>8</v>
       </c>
@@ -4177,7 +4197,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>8</v>
       </c>
@@ -4203,7 +4223,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>8</v>
       </c>
@@ -4229,7 +4249,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>8</v>
       </c>
@@ -4255,7 +4275,7 @@
         <v>204.5</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>8</v>
       </c>
@@ -4281,7 +4301,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>8</v>
       </c>
@@ -4306,8 +4326,16 @@
       <c r="H79" s="3">
         <v>24.83</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" s="6">
+        <v>15</v>
+      </c>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>8</v>
       </c>
